--- a/excel/nafil-timings.xlsx
+++ b/excel/nafil-timings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Desktop\Falah-E-Kounaain\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falah-E-Kounaain\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6517BA56-DCED-478B-B1F5-8FFB89743FB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="10160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -75,14 +76,26 @@
   </si>
   <si>
     <t>After Ishaa</t>
+  </si>
+  <si>
+    <t>iftari</t>
+  </si>
+  <si>
+    <t>4:33am</t>
+  </si>
+  <si>
+    <t>6:46pm</t>
+  </si>
+  <si>
+    <t>sehri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -115,7 +128,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,11 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,7 +420,7 @@
     <col min="1" max="1" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +448,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45502</v>
       </c>
@@ -464,8 +483,14 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45503</v>
       </c>
@@ -493,8 +518,14 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45504</v>
       </c>
@@ -522,8 +553,14 @@
       <c r="I4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45505</v>
       </c>
@@ -551,8 +588,14 @@
       <c r="I5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45506</v>
       </c>
@@ -580,8 +623,14 @@
       <c r="I6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45507</v>
       </c>
@@ -609,8 +658,14 @@
       <c r="I7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45508</v>
       </c>
@@ -638,8 +693,14 @@
       <c r="I8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45509</v>
       </c>
@@ -667,8 +728,14 @@
       <c r="I9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45510</v>
       </c>
@@ -695,6 +762,12 @@
       </c>
       <c r="I10" t="s">
         <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/excel/nafil-timings.xlsx
+++ b/excel/nafil-timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falah-E-Kounaain\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6517BA56-DCED-478B-B1F5-8FFB89743FB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29BB22-8CDF-448F-B055-BA92A6DCF399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -57,34 +57,13 @@
     <t>After Isha</t>
   </si>
   <si>
-    <t>4:38am</t>
-  </si>
-  <si>
-    <t>6:20am</t>
-  </si>
-  <si>
-    <t>9:00am</t>
-  </si>
-  <si>
-    <t>12:16pm</t>
-  </si>
-  <si>
     <t>After Magrib</t>
   </si>
   <si>
-    <t>8:02pm</t>
-  </si>
-  <si>
     <t>After Ishaa</t>
   </si>
   <si>
     <t>iftari</t>
-  </si>
-  <si>
-    <t>4:33am</t>
-  </si>
-  <si>
-    <t>6:46pm</t>
   </si>
   <si>
     <t>sehri</t>
@@ -94,8 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -126,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,12 +393,14 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I2" sqref="I2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.7265625" style="2"/>
+    <col min="9" max="11" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -427,32 +410,32 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -462,32 +445,32 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="C2" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -495,34 +478,34 @@
         <v>45503</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="C3" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -532,32 +515,32 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+      <c r="C4" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -567,32 +550,32 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
+      <c r="C5" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -602,32 +585,32 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+      <c r="C6" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -637,32 +620,32 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+      <c r="C7" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -672,32 +655,32 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
+      <c r="C8" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -707,32 +690,32 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+      <c r="C9" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -742,32 +725,32 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
+      <c r="C10" s="2">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.51111111111111118</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.78194444444444444</v>
       </c>
     </row>
   </sheetData>

--- a/excel/nafil-timings.xlsx
+++ b/excel/nafil-timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falah-E-Kounaain\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29BB22-8CDF-448F-B055-BA92A6DCF399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC0788-FC9D-4CB4-A1CD-CCD6F8294606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,7 +109,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,12 +393,12 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="8.7265625" style="2"/>
     <col min="9" max="11" width="8.7265625" style="2"/>
   </cols>
